--- a/app/config/tables/MASKCOVID/Forms/MASKCOVID/MASKCOVID.xlsx
+++ b/app/config/tables/MASKCOVID/Forms/MASKCOVID/MASKCOVID.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA898B1C-765B-409B-A551-5013219AC7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635E821-95FB-6A48-8066-9EEE1005B380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="11500" tabRatio="728" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
     <t>ass 3</t>
   </si>
   <si>
-    <t>TypeMask3</t>
+    <t>Cloth</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1725,17 +1725,17 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1842,28 +1842,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="D54:H54"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="10" customFormat="1">
       <c r="D3" s="10" t="s">
         <v>89</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="10" customFormat="1">
       <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="10" customFormat="1">
       <c r="D5" s="10" t="s">
         <v>89</v>
       </c>
@@ -1942,12 +1942,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="10" customFormat="1">
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="D7" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="10" customFormat="1">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -1982,12 +1982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="10" customFormat="1">
       <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="10" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>40</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>40</v>
       </c>
@@ -2028,12 +2028,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="D15" t="s">
         <v>40</v>
       </c>
@@ -2044,12 +2044,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10">
       <c r="D20" t="s">
         <v>40</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10">
       <c r="D21" t="s">
         <v>40</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10">
       <c r="D23" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10">
       <c r="D24" s="18" t="s">
         <v>37</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10">
       <c r="D25" s="18" t="s">
         <v>37</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10">
       <c r="D26" s="18" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10">
       <c r="D27" s="18" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10">
       <c r="D28" s="18" t="s">
         <v>37</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10">
       <c r="D29" s="18" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10">
       <c r="D30" s="18" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10">
       <c r="D31" s="18" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10">
       <c r="D32" s="18" t="s">
         <v>37</v>
       </c>
@@ -2300,12 +2300,12 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
         <v>216</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="3" customFormat="1">
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="3" customFormat="1">
       <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="3" customFormat="1">
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="3" customFormat="1">
       <c r="D39" s="3" t="s">
         <v>89</v>
       </c>
@@ -2361,12 +2361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="3" customFormat="1">
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="3" customFormat="1">
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="3" customFormat="1">
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
@@ -2388,12 +2388,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="3" customFormat="1">
       <c r="B44" s="3" t="s">
         <v>91</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="3" customFormat="1">
       <c r="D45" s="3" t="s">
         <v>87</v>
       </c>
@@ -2415,18 +2415,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="3" customFormat="1">
       <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1"/>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="B51" t="s">
         <v>38</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="D52" t="s">
         <v>88</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13" customHeight="1">
       <c r="D53" t="s">
         <v>37</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="D54" t="s">
         <v>88</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="D55" t="s">
         <v>88</v>
       </c>
@@ -2527,12 +2527,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="D57" t="s">
         <v>37</v>
       </c>
@@ -2549,12 +2549,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>284</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="D61" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="D63" t="s">
         <v>37</v>
       </c>
@@ -2604,12 +2604,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="B64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="D66" t="s">
         <v>37</v>
       </c>
@@ -2634,12 +2634,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="B67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="D68" t="s">
         <v>37</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="B69" t="s">
         <v>38</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="D70" t="s">
         <v>87</v>
       </c>
@@ -2678,27 +2678,27 @@
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="B71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="B72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="B75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>332</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14" customHeight="1">
       <c r="D78" t="s">
         <v>37</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15" customHeight="1">
       <c r="B79" t="s">
         <v>38</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" customHeight="1">
       <c r="D80" t="s">
         <v>87</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15" customHeight="1">
       <c r="D81" t="s">
         <v>37</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="D82" t="s">
         <v>87</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="D83" t="s">
         <v>37</v>
       </c>
@@ -2793,12 +2793,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="B84" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="B85" t="s">
         <v>38</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="D86" t="s">
         <v>87</v>
       </c>
@@ -2820,17 +2820,17 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="B87" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="B88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>360</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14" customHeight="1">
       <c r="D91" t="s">
         <v>37</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="16" customHeight="1">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="16" customHeight="1">
       <c r="D93" t="s">
         <v>87</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="D94" t="s">
         <v>37</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="D95" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="D96" t="s">
         <v>37</v>
       </c>
@@ -2925,13 +2925,13 @@
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97" t="s">
         <v>39</v>
       </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98" t="s">
         <v>38</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="D99" t="s">
         <v>87</v>
       </c>
@@ -2953,12 +2953,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101" t="s">
         <v>53</v>
       </c>
@@ -2977,22 +2977,22 @@
       <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3039,12 +3039,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="17" customFormat="1">
       <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="D3" t="s">
         <v>37</v>
       </c>
@@ -3061,12 +3061,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="17" customFormat="1">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -3074,23 +3074,23 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="17" customFormat="1">
       <c r="B6" t="s">
         <v>233</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="17" customFormat="1">
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="17" customFormat="1">
       <c r="B8"/>
       <c r="C8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>314</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="D11" t="s">
         <v>37</v>
       </c>
@@ -3132,12 +3132,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="D14" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="D15" t="s">
         <v>37</v>
       </c>
@@ -3173,12 +3173,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -3214,12 +3214,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="D22" t="s">
         <v>40</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="D23" t="s">
         <v>37</v>
       </c>
@@ -3261,12 +3261,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="D26" t="s">
         <v>40</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -3302,12 +3302,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="D31" t="s">
         <v>37</v>
       </c>
@@ -3343,12 +3343,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>317</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="D34" t="s">
         <v>40</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" t="s">
         <v>37</v>
       </c>
@@ -3384,12 +3384,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>319</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="D38" t="s">
         <v>40</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="D39" t="s">
         <v>37</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="D41" t="s">
         <v>87</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="D42" t="s">
         <v>37</v>
       </c>
@@ -3464,12 +3464,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="D45" t="s">
         <v>87</v>
       </c>
@@ -3491,17 +3491,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="D50" t="s">
         <v>37</v>
       </c>
@@ -3526,17 +3526,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="B51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
         <v>37</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>91</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="D55" t="s">
         <v>37</v>
       </c>
@@ -3578,12 +3578,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="B57" t="s">
         <v>91</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
         <v>37</v>
       </c>
@@ -3608,12 +3608,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="3" customFormat="1">
       <c r="B60" s="3" t="s">
         <v>91</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="D61" s="3" t="s">
         <v>40</v>
       </c>
@@ -3632,12 +3632,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="B63" t="s">
         <v>91</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="D64" t="s">
         <v>87</v>
       </c>
@@ -3659,12 +3659,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>53</v>
       </c>
@@ -3679,19 +3679,19 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:A87"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>418</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -3750,13 +3750,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="15" customFormat="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="10" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>132</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="10" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>132</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="10" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="10" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>132</v>
       </c>
@@ -3812,13 +3812,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="10" customFormat="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="10" customFormat="1">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="10" customFormat="1">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3846,8 +3846,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="10" customFormat="1"/>
+    <row r="14" spans="1:4" s="10" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>217</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="10" customFormat="1">
       <c r="A15" s="12" t="s">
         <v>217</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="10" customFormat="1">
       <c r="A16" s="12" t="s">
         <v>217</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
         <v>217</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="10" customFormat="1">
       <c r="A18" s="12" t="s">
         <v>217</v>
       </c>
@@ -3917,13 +3917,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="10" customFormat="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3965,10 +3965,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -4025,10 +4025,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4373,10 +4373,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>244</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>244</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>244</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -4516,11 +4516,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>265</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>265</v>
       </c>
@@ -4576,11 +4576,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -4608,11 +4608,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>279</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>279</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>279</v>
       </c>
@@ -4654,11 +4654,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>286</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>286</v>
       </c>
@@ -4686,11 +4686,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>293</v>
       </c>
@@ -4704,25 +4704,25 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="B81" s="7">
         <v>2</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>295</v>
+        <v>426</v>
       </c>
       <c r="D81" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>299</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -4750,10 +4750,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>346</v>
       </c>
@@ -4781,58 +4781,58 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="7"/>
     </row>
   </sheetData>
@@ -4851,13 +4851,13 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>164</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
         <v>169</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
     </row>
@@ -4908,15 +4908,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4959,16 +4959,16 @@
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>148</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>151</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>152</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>153</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>162</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>214</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>206</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>419</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>226</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>208</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>216</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>135</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>144</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>141</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>142</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>143</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>138</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>139</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>140</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>155</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>146</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>410</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>242</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>306</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>307</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>308</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>309</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>283</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>284</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>291</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>310</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>311</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>417</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>313</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>333</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>334</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>335</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>336</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>337</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>340</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>92</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>343</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>345</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>350</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>354</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>361</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>363</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>364</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>365</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>366</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>367</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>316</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>317</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>322</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>326</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>327</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>331</v>
       </c>
